--- a/01_RMSE across models_done.xlsx
+++ b/01_RMSE across models_done.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zebgroup-my.sharepoint.com/personal/ahoffaerber_zeb_de/Documents/Dokumente/StockIndicesPrediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahoffaerber\OneDrive - zeb\Dokumente\StockIndicesPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FFC51B22-CD82-4669-AA14-6FE697B0C39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98A19B1D-F896-4445-95BD-B90A4A2D72AC}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{FFC51B22-CD82-4669-AA14-6FE697B0C39E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9B329432-C96D-44E9-AAEB-9F52BD9C5B3B}"/>
   <bookViews>
     <workbookView xWindow="-9960" yWindow="-16440" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Country</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Stacking</t>
   </si>
   <si>
-    <t>Mean_ens</t>
-  </si>
-  <si>
-    <t>Median_ens</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>MED</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -94,13 +85,19 @@
     <t>Single-Country</t>
   </si>
   <si>
-    <t>Ensembles</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
     <t>RMSE across base, meta, and benchmark models</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
   </si>
 </sst>
 </file>
@@ -110,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,6 +117,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -139,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -156,39 +159,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -210,43 +180,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="double">
         <color auto="1"/>
       </top>
@@ -266,63 +201,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,664 +769,878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:S20"/>
+  <dimension ref="D2:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.7265625" style="2"/>
-    <col min="7" max="12" width="8.6328125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="10.6328125" style="2" customWidth="1"/>
-    <col min="16" max="17" width="8.6328125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="1.1796875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="1.1796875" style="1" customWidth="1"/>
+    <col min="13" max="15" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="1.1796875" style="1" customWidth="1"/>
+    <col min="18" max="20" width="8.6328125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="1.1796875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8.6328125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="4:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="4:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="17" t="s">
+    <row r="2" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="4:26" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="4:26" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
+      <c r="X7" s="13"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="18" t="s">
+      <c r="S8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="X8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="4:26" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="3">
+        <v>3.6583680120336255E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.9670096173696078E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.9081282973850148E-2</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>7.5206037667677167E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>4.0914902584955906E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4.4041676978340445E-2</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>3.3852028952137174E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>3.6740359964597527E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3.769193308443794E-2</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3">
+        <v>8.5231067944086525E-2</v>
+      </c>
+      <c r="X10" s="3">
+        <v>5.8112446812800096E-2</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="3">
+        <v>4.4969394155615641E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.1688530500284966E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2.7193249981501591E-2</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <v>0.14650758816770931</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5.3199731336220198E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3.8040817141768622E-2</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>4.2277479780575056E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4.8314801443015934E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <v>3.8695800215552717E-2</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3">
+        <v>6.0960306375285232E-2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>6.0469916016240056E-2</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7">
-        <v>3.6583680120336255E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>2.9670096173696078E-2</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3.9081282973850148E-2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>7.5206037667677167E-2</v>
-      </c>
-      <c r="K9" s="7">
-        <v>4.0914902584955906E-2</v>
-      </c>
-      <c r="L9" s="8">
-        <v>4.4041676978340445E-2</v>
-      </c>
-      <c r="M9" s="7">
-        <v>3.3852028952137174E-2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3.6740359964597527E-2</v>
-      </c>
-      <c r="O9" s="8">
-        <v>3.769193308443794E-2</v>
-      </c>
-      <c r="P9" s="9">
-        <v>8.5231067944086525E-2</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>5.8112446812800096E-2</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="3">
+        <v>5.4460943188458927E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.4363314357928792E-2</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5.3408337163065811E-2</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <v>7.0889661107817997E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3.8377014643240809E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6.949060999493524E-2</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>3.8391386024991106E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3.9947931954967444E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3.5925546314447859E-2</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3">
+        <v>7.7045151285707728E-2</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.13445365609382345</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7">
-        <v>4.4969394155615641E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3.1688530500284966E-2</v>
-      </c>
-      <c r="I10" s="8">
-        <v>2.7193249981501591E-2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.14650758816770931</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5.3199731336220198E-2</v>
-      </c>
-      <c r="L10" s="8">
-        <v>3.8040817141768622E-2</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4.2277479780575056E-2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4.8314801443015934E-2</v>
-      </c>
-      <c r="O10" s="8">
-        <v>3.8695800215552717E-2</v>
-      </c>
-      <c r="P10" s="9">
-        <v>6.0960306375285232E-2</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>6.0469916016240056E-2</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
+        <v>7.9309571250450295E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>7.8427240427157638E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.3329196729841455E-2</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <v>0.18173686214874862</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.10340203655348035</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7.2899362417985419E-2</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <v>6.5867310417973973E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <v>7.2802486509285197E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>6.6307226305871006E-2</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
+        <v>8.7023182005269553E-2</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.16272401934148373</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7">
-        <v>5.4460943188458927E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4.4363314357928792E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>5.3408337163065811E-2</v>
-      </c>
-      <c r="J11" s="7">
-        <v>7.0889661107817997E-2</v>
-      </c>
-      <c r="K11" s="7">
-        <v>3.8377014643240809E-2</v>
-      </c>
-      <c r="L11" s="8">
-        <v>6.949060999493524E-2</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3.8391386024991106E-2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3.9947931954967444E-2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>3.5925546314447859E-2</v>
-      </c>
-      <c r="P11" s="9">
-        <v>7.7045151285707728E-2</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0.13445365609382345</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="3">
+        <v>5.6471664662659259E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7.0242300747819786E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.6066966931526544E-2</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <v>4.254694349412836E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>4.7407620863282332E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>5.6720874131900349E-2</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>5.2553386075427644E-2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>4.9659021877377356E-2</v>
+      </c>
+      <c r="T14" s="3">
+        <v>4.8256345924606044E-2</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3">
+        <v>9.9907976140043736E-2</v>
+      </c>
+      <c r="X14" s="3">
+        <v>7.4503974218298186E-2</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7">
-        <v>7.9309571250450295E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7.8427240427157638E-2</v>
-      </c>
-      <c r="I12" s="8">
-        <v>6.3329196729841455E-2</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0.18173686214874862</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.10340203655348035</v>
-      </c>
-      <c r="L12" s="8">
-        <v>7.2899362417985419E-2</v>
-      </c>
-      <c r="M12" s="7">
-        <v>6.5867310417973973E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>7.2802486509285197E-2</v>
-      </c>
-      <c r="O12" s="8">
-        <v>6.6307226305871006E-2</v>
-      </c>
-      <c r="P12" s="9">
-        <v>8.7023182005269553E-2</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0.16272401934148373</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="3">
+        <v>3.107310000428639E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5.8600438083903632E-2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2.9066991901913714E-2</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <v>2.616844112776796E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.0348971712498467E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3.8530191524916574E-2</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <v>2.2692846717046206E-2</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2.1513540326761896E-2</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2.2580918713807154E-2</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
+        <v>8.0727939456222614E-2</v>
+      </c>
+      <c r="X15" s="3">
+        <v>6.2894263127419525E-2</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="7">
-        <v>5.6471664662659259E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7.0242300747819786E-2</v>
-      </c>
-      <c r="I13" s="8">
-        <v>4.6066966931526544E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4.254694349412836E-2</v>
-      </c>
-      <c r="K13" s="7">
-        <v>4.7407620863282332E-2</v>
-      </c>
-      <c r="L13" s="8">
-        <v>5.6720874131900349E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5.2553386075427644E-2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4.9659021877377356E-2</v>
-      </c>
-      <c r="O13" s="8">
-        <v>4.8256345924606044E-2</v>
-      </c>
-      <c r="P13" s="9">
-        <v>9.9907976140043736E-2</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>7.4503974218298186E-2</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3.107310000428639E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>5.8600438083903632E-2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2.9066991901913714E-2</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2.616844112776796E-2</v>
-      </c>
-      <c r="K14" s="7">
-        <v>2.0348971712498467E-2</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3.8530191524916574E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2.2692846717046206E-2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2.1513540326761896E-2</v>
-      </c>
-      <c r="O14" s="8">
-        <v>2.2580918713807154E-2</v>
-      </c>
-      <c r="P14" s="9">
-        <v>8.0727939456222614E-2</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>6.2894263127419525E-2</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="4:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="G16" s="5"/>
+      <c r="H16" s="3">
         <v>8.787613407657624E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I16" s="3">
         <v>5.1809433988533264E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J16" s="3">
         <v>5.103329289585648E-2</v>
       </c>
-      <c r="J15" s="7">
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>5.4225429228630939E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="N16" s="3">
         <v>3.4332930273378415E-2</v>
       </c>
-      <c r="L15" s="8">
+      <c r="O16" s="3">
         <v>4.5924901873569575E-2</v>
       </c>
-      <c r="M15" s="7">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>4.8558144061802901E-2</v>
       </c>
-      <c r="N15" s="7">
+      <c r="S16" s="3">
         <v>4.4664222575569117E-2</v>
       </c>
-      <c r="O15" s="8">
+      <c r="T16" s="3">
         <v>3.9892743611599085E-2</v>
       </c>
-      <c r="P15" s="9">
+      <c r="U16" s="4"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
         <v>6.553603417362841E-2</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="X16" s="3">
         <v>0.12805116077419401</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="4:19" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="12">
-        <v>5.4460943188458927E-2</v>
-      </c>
-      <c r="H16" s="12">
-        <v>5.1809433988533264E-2</v>
-      </c>
-      <c r="I16" s="12">
-        <v>4.6066966931526544E-2</v>
-      </c>
-      <c r="J16" s="12">
-        <v>7.0889661107817997E-2</v>
-      </c>
-      <c r="K16" s="12">
-        <v>4.0914902584955906E-2</v>
-      </c>
-      <c r="L16" s="12">
-        <v>4.5924901873569575E-2</v>
-      </c>
-      <c r="M16" s="12">
-        <v>4.2277479780575056E-2</v>
-      </c>
-      <c r="N16" s="12">
-        <v>4.4664222575569117E-2</v>
-      </c>
-      <c r="O16" s="13">
-        <v>3.8695800215552717E-2</v>
-      </c>
-      <c r="P16" s="12">
-        <v>8.0727939456222614E-2</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>7.4503974218298186E-2</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="4:26" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="4:26" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="3">
+        <v>5.4460943188458927E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5.1809433988533264E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4.6066966931526544E-2</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <v>7.0889661107817997E-2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>4.0914902584955906E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4.5924901873569575E-2</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
+        <v>4.2277479780575056E-2</v>
+      </c>
+      <c r="S19" s="3">
+        <v>4.4664222575569117E-2</v>
+      </c>
+      <c r="T19" s="3">
+        <v>3.8695800215552717E-2</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3">
+        <v>8.0727939456222614E-2</v>
+      </c>
+      <c r="X19" s="3">
+        <v>7.4503974218298186E-2</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="R7:T7"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:Q9">
+  <conditionalFormatting sqref="H10:X10">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
-      <formula>$P$9</formula>
+      <formula>$W$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:Q16">
+  <conditionalFormatting sqref="H11:X19">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
-      <formula>$P10</formula>
+      <formula>$W11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:L9">
+  <conditionalFormatting sqref="H10:Q10">
     <cfRule type="top10" dxfId="17" priority="21" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:L10">
+  <conditionalFormatting sqref="H11:Q11">
     <cfRule type="top10" dxfId="16" priority="19" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:L11">
+  <conditionalFormatting sqref="H12:Q12">
     <cfRule type="top10" dxfId="15" priority="18" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:L12">
+  <conditionalFormatting sqref="H13:Q13">
     <cfRule type="top10" dxfId="14" priority="17" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:L13">
+  <conditionalFormatting sqref="H14:Q14">
     <cfRule type="top10" dxfId="13" priority="15" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:L14">
+  <conditionalFormatting sqref="H15:Q15">
     <cfRule type="top10" dxfId="12" priority="14" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:L15">
+  <conditionalFormatting sqref="H16:Q18">
     <cfRule type="top10" dxfId="11" priority="13" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:L16">
+  <conditionalFormatting sqref="H19:Q19">
     <cfRule type="top10" dxfId="10" priority="12" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:O9">
+  <conditionalFormatting sqref="R10:V10">
     <cfRule type="top10" dxfId="9" priority="11" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:O10">
+  <conditionalFormatting sqref="R11:V11">
     <cfRule type="top10" dxfId="8" priority="10" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:O11">
+  <conditionalFormatting sqref="R12:V12">
     <cfRule type="top10" dxfId="7" priority="9" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:O12">
+  <conditionalFormatting sqref="R13:V13">
     <cfRule type="top10" dxfId="6" priority="8" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:O13">
+  <conditionalFormatting sqref="R14:V14">
     <cfRule type="top10" dxfId="5" priority="6" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:O14">
+  <conditionalFormatting sqref="R15:V15">
     <cfRule type="top10" dxfId="4" priority="5" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:O15">
+  <conditionalFormatting sqref="R16:V18">
     <cfRule type="top10" dxfId="3" priority="4" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:O16">
+  <conditionalFormatting sqref="R19:V19">
     <cfRule type="top10" dxfId="2" priority="3" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:Q16">
+  <conditionalFormatting sqref="H19:X19">
     <cfRule type="top10" dxfId="1" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:O16">
+  <conditionalFormatting sqref="R19:V19">
     <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>